--- a/pythons/new_neurons/logs/64bits_20220603_gpu_a100/64bits_20220603_gpu_a100.xlsx
+++ b/pythons/new_neurons/logs/64bits_20220603_gpu_a100/64bits_20220603_gpu_a100.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://heriotwatt-my.sharepoint.com/personal/ct105_hw_ac_uk/Documents/HIOF_Master/Master_Thesis/NewLSTM/Codes/tf_implementations/pythons/new_neurons/logs/64bits_20220603_gpu_a100/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaut\OneDrive - Heriot-Watt University\HIOF_Master\Master_Thesis\NewLSTM\Codes\tf_implementations\pythons\new_neurons\logs\64bits_20220603_gpu_a100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="10_ncr:40000_{E6550374-DCA3-46FF-A8BB-F8E1C68C738C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{403EF0AB-13F5-40A2-842C-0A905BC269A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514202D5-E296-4106-85B9-4A5D41F3F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="38400" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="57600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="64bits_20220602_gpu_a100" sheetId="2" r:id="rId1"/>
+    <sheet name="64bits_20220603_gpu_a100" sheetId="2" r:id="rId1"/>
     <sheet name="raw" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1209,7 +1209,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chau Thi Thuy Tran" refreshedDate="44716.615276620367" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="320" xr:uid="{62036519-B9D3-427C-94DF-9563415D6921}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D321" sheet="64bits_20220602_gpu_a100"/>
+    <worksheetSource ref="A1:D321" sheet="64bits_20220603_gpu_a100"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="model" numFmtId="0">
@@ -3190,7 +3190,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC1999A1-689F-4451-A0CE-874928E2315D}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC1999A1-689F-4451-A0CE-874928E2315D}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F1:J28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
